--- a/data/completePaperList.xlsx
+++ b/data/completePaperList.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1266">
   <si>
     <t xml:space="preserve">SiMPle: Assessing Music Similarity Using Subsequences Joins</t>
   </si>
@@ -63,7 +63,7 @@
     <t xml:space="preserve">03_oral-session-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayesian meter tracking on learned signal representations</t>
+    <t xml:space="preserve">Bayesian Meter Tracking on Learned Signal Representations</t>
   </si>
   <si>
     <t xml:space="preserve">Andre Holzapfel and Thomas Grill</t>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">Sebastian Stober, Thomas Praetzlich and Meinard Mueller</t>
   </si>
   <si>
-    <t xml:space="preserve">A Plan For Sustainable Mir Evaluation</t>
+    <t xml:space="preserve">A Plan for Sustainable MIR Evaluation</t>
   </si>
   <si>
     <t xml:space="preserve">Brian McFee, Eric Humphrey and Julián Urbano</t>
@@ -90,46 +90,46 @@
     <t xml:space="preserve">04_oral-session-03</t>
   </si>
   <si>
-    <t xml:space="preserve">Go With The Flow: When Listeners Use Music As Technology</t>
+    <t xml:space="preserve">Go with the Flow: When Listeners Use Music as Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Andrew Demetriou, Martha Larson and Cynthia C. S. Liem</t>
   </si>
   <si>
-    <t xml:space="preserve">A Look At The Cloud From Both Sides Now: An Analysis Of Cloud Music Service Usage</t>
+    <t xml:space="preserve">A Look at the Cloud from Both Sides Now: An Analysis of Cloud Music Service Usage</t>
   </si>
   <si>
     <t xml:space="preserve">Jin Ha Lee, Yea-Seul Kim and Chris Hubbles</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyzing Measure Annotations For Western Classical Music Recordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christof Weiß, Vlora Arifi-Müller, Thomas Prätzlich, Rainer Kleinertz and Meinard Müller</t>
+    <t xml:space="preserve">Analyzing Measure Annotations for Western Classical Music Recordings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christof Weiß, Vlora Arifi-Müller, Thomas Prätzlich, Rainer Kleinertz and Meinard Mueller</t>
   </si>
   <si>
     <t xml:space="preserve">06_oral-session-04</t>
   </si>
   <si>
-    <t xml:space="preserve">Instrumental Idiom In The 16Th Century: Patterns In Arrangements Of Vocal Music</t>
+    <t xml:space="preserve">Instrumental Idiom in the 16th Century: Embellishment Patterns in Arrangements of Vocal Music</t>
   </si>
   <si>
     <t xml:space="preserve">David Lewis, Tim Crawford and Daniel Müllensiefen</t>
   </si>
   <si>
-    <t xml:space="preserve">The Sousta Corpus: Beat-Informed Automatic Transcription Of Traditional Dance Tunes</t>
+    <t xml:space="preserve">The Sousta Corpus: Beat-Informed Automatic Transcription of Traditional Dance Tunes</t>
   </si>
   <si>
     <t xml:space="preserve">Andre Holzapfel and Emmanouil Benetos</t>
   </si>
   <si>
-    <t xml:space="preserve">Learning A Feature Space For World Music Style Similarity</t>
+    <t xml:space="preserve">Learning a Feature Space for Similarity in World Music</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Panteli, Emmanouil Benetos and Simon Dixon</t>
   </si>
   <si>
-    <t xml:space="preserve">Systematic Exploration Of Computational Music Structure Research</t>
+    <t xml:space="preserve">Systematic Exploration of Computational Music Structure Research</t>
   </si>
   <si>
     <t xml:space="preserve">Oriol Nieto and Juan Pablo Bello</t>
@@ -138,244 +138,244 @@
     <t xml:space="preserve">07_oral-session-05</t>
   </si>
   <si>
-    <t xml:space="preserve">Using Priors To Improve Estimates Of Music Structure</t>
+    <t xml:space="preserve">Using Priors to Improve Estimates of Music Structure</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Smith and Masataka Goto</t>
   </si>
   <si>
-    <t xml:space="preserve">Music Structural Segmentation Across Genres With Gammatone Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi Tian and Mark B. Sandler</t>
+    <t xml:space="preserve">Music Structural Segmentation Across Genres with Gammatone Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Tian and Mark Sandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Melodic Reduction Using a Supervised Probabilistic Context-Free Grammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Groves</t>
   </si>
   <si>
     <t xml:space="preserve">09_oral-session-06</t>
   </si>
   <si>
-    <t xml:space="preserve">Automatic Melodic Reduction Using A Supervised Probabilistic Context-Free Grammar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Groves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Neural Greedy Model For Voice Separation In Symbolic Music</t>
+    <t xml:space="preserve">A Neural Greedy Model for Voice Separation in Symbolic Music</t>
   </si>
   <si>
     <t xml:space="preserve">Patrick Gray and Razvan Bunescu</t>
   </si>
   <si>
-    <t xml:space="preserve">Towards Reading Sheet Music</t>
+    <t xml:space="preserve">Towards Score Following In Sheet Music Images</t>
   </si>
   <si>
     <t xml:space="preserve">Matthias Dorfer, Andreas Arzt and Gerhard Widmer</t>
   </si>
   <si>
+    <t xml:space="preserve">Extracting Ground-Truth Information from MIDI Files: A MIDIfesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Raffel and Daniel Ellis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Tagging Using Deep Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keunwoo Choi, György Fazekas and Mark Sandler</t>
+  </si>
+  <si>
     <t xml:space="preserve">10_oral-session-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Extracting Ground-Truth Information From Midi Files: A Midifesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin Raffel and Daniel Ellis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Tagging Using Deep Convolutional Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keunwoo Choi, George Fazekas and Mark Sandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Hybrid Gaussian-Hmm-Deep Learning Approach For Automatic Chord Estimation With Very Large Vocabulary</t>
+    <t xml:space="preserve">A Hybrid Gaussian-HMM-Deep Learning Approach for Automatic Chord Estimation with Very Large Vocabulary</t>
   </si>
   <si>
     <t xml:space="preserve">Junqi Deng and Yu-Kwong Kwok</t>
   </si>
   <si>
-    <t xml:space="preserve">Singing Melody Extraction Using Multi-Column Deep Neural Networks</t>
+    <t xml:space="preserve">Melody Extraction on Vocal Segments Using Multi-Column Deep Neural Networks</t>
   </si>
   <si>
     <t xml:space="preserve">Sangeun Kum, Changheun Oh and Juhan Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">An Ontology For Audio Features</t>
+    <t xml:space="preserve">A Corpus of Annotated Irish Traditional Dance Music Recordings: Design and Benchmark Evaluations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre Beauguitte, Bryan Duggan and John Kelleher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_poster-session-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive Frequency Neural Networks for Dynamic Pulse and Metre Perception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Lambert, Tillman Weyde and Newton Armstrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Evaluation Framework and Case Study for Rhythmic Concatenative Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cárthach Ó Nuanáin, Perfecto Herrera and Sergi Jordà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Ontology for Audio Features</t>
   </si>
   <si>
     <t xml:space="preserve">Alo Allik, György Fazekas and Mark Sandler</t>
   </si>
   <si>
-    <t xml:space="preserve">02_poster-session-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptive Frequency Neural Networks For Dynamic Pulse And Metre Perception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Lambert, Tillman Weyde and Newton Armstrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listen To Me – Don'T Listen To Me: What Communities Of Critics Tell Us About Music</t>
+    <t xml:space="preserve">Analysis and Classification of Phonation Modes In Singing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Stoller and Simon Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of Vocal Imitations of Pitch Trajectories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiajie Dai and Simon Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Music Recommendation Systems: Do Demographic, Profiling, and Contextual Features Improve Their Performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Vigliensoni and Ichiro Fujinaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Outlier Detection in Music Genre Datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yen-Cheng Lu, Chih-Wei Wu, Alexander Lerch and Chang-Tien Lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVA: An Interactive System for Visual and Quantitative Analyses of Vibrato and Portamento Performance Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luwei Yang, Khalid Z. Rajab and Elaine Chew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composer Recognition Based on 2D-Filtered Piano-Rolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gissel Velarde, Tillman Weyde, Carlos Cancino Chacón, David Meredith and Maarten Grachten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversations with Expert Users in Music Retrieval and Research Challenges for Creative MIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristina Andersen and Peter Knees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downbeat Tracking Using Beat Synchronous Features with Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florian Krebs, Sebastian Böck, Matthias Dorfer and Gerhard Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhancing Cover Song Identification with Hierarchical Rank Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julien Osmalskyj, Marc Van Droogenbroeck and Jean-Jacques Embrechts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble: A Hybrid Human-Machine System for Generating Melody Scores from Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Tse, Justin Salamon, Alex Williams, Helga Jiang and Edith Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Customer Reviews for Music Genre Classification and Evolutionary Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Oramas, Luis Espinosa-Anke, Aonghus Lawlor, Xavier Serra and Horacio Saggion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further Steps Towards a Standard Testbed for Optical Music Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Hajič jr., Jiří Novotný, Pavel Pecina and Jaroslav Pokorný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving Voice Separation by Better Connecting Contigs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Guiomard-Kagan, Mathieu Giraud, Richard Groult and Florence Levé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer Programming Formulation of the Problem of Generating Milton Babbitt's All-Partition Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsubasa Tanaka, Brian Bemman and David Meredith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration and Quality Assessment of Heterogeneous Chord Sequences Using Data Fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendrik Vincent Koops, W. Bas de Haas, Dimitrios Bountouridis and Anja Volk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landmark-Based Audio Fingerprinting for DJ Mix Monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinhard Sonnleitner, Andreas Arzt and Gerhard Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning and Visualizing Music Specifications Using Pattern Graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Valle, Daniel J. Fremont, Ilge Akkaya, Alexandre Donzé, Adrian Freed and Sanjit A. Seshia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen To Me – Don't Listen To Me: What Communities of Critics Tell Us About Music</t>
   </si>
   <si>
     <t xml:space="preserve">Ben Fields and Christophe Rhodes</t>
   </si>
   <si>
-    <t xml:space="preserve">An Evaluation Framework And Case Study For Rhythmic Concatenative Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cárthach Ó Nuanáin, Perfecto Herrera and Sergi Jordà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Drum Playing Technique Detection In Polyphonic Mixtures</t>
+    <t xml:space="preserve">Long-Term Reverberation Modeling for Under-Determined Audio Source Separation with Application to Vocal Melody Extraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romain Hennequin and François Rigaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonnegative Tensor Factorization with Frequency Modulation Cues for Blind Audio Source Separation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elliot Creager, Noah Stein, Roland Badeau and Philippe Depalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Drum Playing Technique Detection in Polyphonic Mixtures</t>
   </si>
   <si>
     <t xml:space="preserve">Chih-Wei Wu and Alexander Lerch</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis And Classification Of Phonation Modes In Singing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Stoller and Simon Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonnegative Tensor Factorization With Frequency Modulation Cues For Blind Audio Source Separation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elliot Creager, Noah Stein and Roland Badeau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downbeat Tracking Using Beat Synchronous Features With Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian Krebs, Sebastian Böck, Matthias Dorfer and Gerhard Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Music Recommendation Systems: Do Demographic, Profiling, And Contextual Features Improve Their Performance?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Vigliensoni and Ichiro Fujinaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composer Recognition Based On 2D-Filtered Piano-Rolls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gissel Velarde, Carlos Cancino Chacón, David Meredith, Weyde Tillman and Maaten Grachten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration And Quality Assessment Of Heterogeneous Chord Sequences Using Data Fusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hendrik Vincent Koops, W. Bas de Haas, Dimitrios Bountouridis and Anja Volk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicting Missing Music Components With Bidirectional Long Short-Term Memory Neural Networks</t>
+    <t xml:space="preserve">Predicting Missing Music Components with Bidirectional Long Short-Term Memory Neural Networks</t>
   </si>
   <si>
     <t xml:space="preserve">I-Ting Liu and Richard Randall</t>
   </si>
   <si>
-    <t xml:space="preserve">Further Steps Towards A Standard Testbed For Optical Music Recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan Hajič, jr., Jiří Novotný, Pavel Pecina and Jaroslav Pokorný</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Of Vocal Imitations Of Pitch Trajectories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiajie Dai and Simon Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Template-Based Vibrato Analysis In Complex Music Signals</t>
+    <t xml:space="preserve">Structural Segmentation and Visualization of Sitar and Sarod Concert Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinutha T. P., Suryanarayana Sankagiri, Kaustuv Kanti Ganguli and Preeti Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template-Based Vibrato Analysis in Complex Music Signals</t>
   </si>
   <si>
     <t xml:space="preserve">Jonathan Driedger, Stefan Balke, Sebastian Ewert and Meinard Mueller</t>
   </si>
   <si>
-    <t xml:space="preserve">Enhancing Cover Song Identification With Hierarchical Rank Aggregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julien Osmalskyj, Marc Van Droogenbroeck and Jean-Jacques Embrechts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversations With Expert Users In Music Retrieval And Research Challenges For Creative Mir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristina Andersen and Peter Knees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ava: An Interactive System For Visual And Quantitative Analyses Of Vibrato And Portamento Performance Styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luwei Yang, Elaine Chew and Khalid Z. Rajab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving Voice Separation By Better Connecting Contigs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas Guiomard-Kagan, Mathieu Giraud, Richard Groult and Florence Levé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Corpus Of Annotated Irish Traditional Dance Music Recordings: Design And Benchmark Evaluations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre Beauguitte, Bryan Duggan and John Kelleher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning And Visualizing Music Specifications Using Pattern Graphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Valle, Alexandre Donzé, Daniel J. Fremont, Ilge Akkaya, Sanjit A. Seshia and Adrian Freed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landmark-Based Audio Fingerprinting For Dj Mix Monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinhard Sonnleitner, Andreas Arzt and Gerhard Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long-Term Reverberation Modeling In Under-Determined Audio Source Separation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romain Hennequin and François Rigaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploring Customer Reviews For Music Genre Classification And Evolutionary Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Oramas, Luis Espinosa-Anke, Aonghus Lawlor, Horacio Saggion and Xavier Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Evaluating Multiple Predominant Melody Annotations In Jazz Recordings</t>
+    <t xml:space="preserve">Towards Evaluating Multiple Predominant Melody Annotations in Jazz Recordings</t>
   </si>
   <si>
     <t xml:space="preserve">Stefan Balke, Jonathan Driedger, Jakob Abesser, Christian Dittmar and Meinard Mueller</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensemble: A Hybrid Human-Machine System For Generating Melody Scores From Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tim Tse, Justin Salamon, Alex Williams, Helga Jiang and Edith Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer Programming Formulation Of The Problem Of Generating Milton Babbitt'S All-Partition Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsubasa Tanaka, Brian Bemman and David Meredith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural Segmentation And Visualization Of Sitar And Sarod Concert Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinutha T. P., Suryanarayana Sankagiri, Kaustuv Kanti Ganguli and Preeti Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Outlier Detection In Music Datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yen-Cheng Lu, Chih-Wei Wu, Alexander Lerch and Chang-Tien Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Hierarchical Bayesian Model Of Chords, Pitches, And Spectrograms For Multipitch Analysis</t>
+    <t xml:space="preserve">A Hierarchical Bayesian Model of Chords, Pitches, and Spectrograms for Multipitch Analysis</t>
   </si>
   <si>
     <t xml:space="preserve">Yuta Ojima, Eita Nakamura, Katsutoshi Itoyama and Kazuyoshi Yoshii</t>
@@ -384,181 +384,181 @@
     <t xml:space="preserve">05_poster-session-02</t>
   </si>
   <si>
-    <t xml:space="preserve">A Higher-Dimensional Expansion Of Affective Norms For English Terms For Music Tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele Buccoli, Massimiliano Zanoni, György Fazekas, Augusto Sarti, Mark Sandler and Stefano Tubaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Latent Space Approach To Listening Behavior Analysis</t>
+    <t xml:space="preserve">A Higher-Dimensional Expansion of Affective Norms for English Terms for Music Tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Buccoli, Massimiliano Zanoni, György Fazekas, Augusto Sarti and Mark Sandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Latent Representation of Users, Sessions, and Songs for Listening Behavior Analysis</t>
   </si>
   <si>
     <t xml:space="preserve">Chia-Hao Chung, Jing-Kai Lou and Homer Chen</t>
   </si>
   <si>
-    <t xml:space="preserve">A Methodology For Quality Assessment In Collaborative Score Libraries</t>
+    <t xml:space="preserve">A Methodology for Quality Assessment in Collaborative Score Libraries</t>
   </si>
   <si>
     <t xml:space="preserve">Vincent Besson, Marco Gurrieri, Philippe Rigaux, Alice Tacaille and Virginie Thion</t>
   </si>
   <si>
-    <t xml:space="preserve">Aligned Hierarchies: A Multi-Scale Structure-Based Representation For Music-Based Data Streams</t>
+    <t xml:space="preserve">Aligned Hierarchies: A Multi-Scale Structure-Based Representation for Music-Based Data Streams</t>
   </si>
   <si>
     <t xml:space="preserve">Katherine M. Kinnaird</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysing Scattering-Based Music Content Analysis Systems: Where'S The Music?</t>
+    <t xml:space="preserve">Analysing Scattering-Based Music Content Analysis Systems: Where's the Music?</t>
   </si>
   <si>
     <t xml:space="preserve">Francisco Rodríguez-Algarra, Bob L. Sturm and Hugo Maruri-Aguilar</t>
   </si>
   <si>
-    <t xml:space="preserve">Beat Tracking With A Cepstroid Invariant Neural Network</t>
+    <t xml:space="preserve">Beat Tracking with a Cepstroid Invariant Neural Network</t>
   </si>
   <si>
     <t xml:space="preserve">Anders Elowsson</t>
   </si>
   <si>
-    <t xml:space="preserve">Bootstrapping A System For Phoneme Recognition And Keyword Spotting In Unaccompanied Singing</t>
+    <t xml:space="preserve">Bootstrapping a System for Phoneme Recognition and Keyword Spotting in Unaccompanied Singing</t>
   </si>
   <si>
     <t xml:space="preserve">Anna Kruspe</t>
   </si>
   <si>
-    <t xml:space="preserve">Can Microblogs Predict Music Charts? An Analysis Of The Relationship Between #Nowplaying Tweets And Music Charts</t>
+    <t xml:space="preserve">Can Microblogs Predict Music Charts? An Analysis of the Relationship Between #Nowplaying Tweets and Music Charts</t>
   </si>
   <si>
     <t xml:space="preserve">Eva Zangerle, Martin Pichl, Benedikt Hupfauf and Günther Specht</t>
   </si>
   <si>
-    <t xml:space="preserve">Cross Task Study On Mirex Recent Results: An Index For Evolution Measurement And Some Stagnation Hypotheses</t>
+    <t xml:space="preserve">Cross Task Study on MIREX Recent Results: An Index for Evolution Measurement and Some Stagnation Hypotheses</t>
   </si>
   <si>
     <t xml:space="preserve">Ricardo Scholz, Geber Ramalho and Giordano Cabral</t>
   </si>
   <si>
-    <t xml:space="preserve">Cross-Collection Evaluation For Music Classification Tasks</t>
+    <t xml:space="preserve">Cross-Collection Evaluation for Music Classification Tasks</t>
   </si>
   <si>
     <t xml:space="preserve">Dmitry Bogdanov, Alastair Porter, Perfecto Herrera and Xavier Serra</t>
   </si>
   <si>
-    <t xml:space="preserve">Downbeat Detection With Conditional Random Fields And Deep Learned Features</t>
+    <t xml:space="preserve">Downbeat Detection with Conditional Random Fields and Deep Learned Features</t>
   </si>
   <si>
     <t xml:space="preserve">Simon Durand and Slim Essid</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploiting Frequency, Periodicity And Harmonicity Using Advanced Time-Frequency Concentration Techniques For Multipitch Estimation Of Choir And Symphony</t>
+    <t xml:space="preserve">Exploiting Frequency, Periodicity and Harmonicity Using Advanced Time-Frequency Concentration Techniques for Multipitch Estimation of Choir and Symphony</t>
   </si>
   <si>
     <t xml:space="preserve">Li Su, Tsung-Ying Chuang and Yi-Hsuan Yang</t>
   </si>
   <si>
-    <t xml:space="preserve">Genre Ontology Learning: Comparing Curated With Crowd-Sourced Ontologies</t>
+    <t xml:space="preserve">Genre Ontology Learning: Comparing Curated with Crowd-Sourced Ontologies</t>
   </si>
   <si>
     <t xml:space="preserve">Hendrik Schreiber</t>
   </si>
   <si>
-    <t xml:space="preserve">Genre Specific Dictionaries For Harmonic/Percussive Source Separation</t>
+    <t xml:space="preserve">Genre Specific Dictionaries for Harmonic/Percussive Source Separation</t>
   </si>
   <si>
     <t xml:space="preserve">Clément Laroche, Hélène Papadopoulos, Matthieu Kowalski and Gaël Richard</t>
   </si>
   <si>
-    <t xml:space="preserve">Good-Sounds.Org: A Framework To Explore Goodness In Instrumental Sounds</t>
+    <t xml:space="preserve">Good-sounds.org: A Framework to Explore Goodness in Instrumental Sounds</t>
   </si>
   <si>
     <t xml:space="preserve">Giuseppe Bandiera, Oriol Romani Picas and Xavier Serra</t>
   </si>
   <si>
-    <t xml:space="preserve">Improving Predictions Of Derived Viewpoints In Multiple Viewpoints Systems</t>
+    <t xml:space="preserve">Improving Predictions of Derived Viewpoints in Multiple Viewpoints Systems</t>
   </si>
   <si>
     <t xml:space="preserve">Thomas Hedges and Geraint Wiggins</t>
   </si>
   <si>
-    <t xml:space="preserve">Learning Temporal Feature Using Deep Neural Network And Its Application To Music Genre Classification</t>
+    <t xml:space="preserve">Known Artist Live Song ID: A Hashprint Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ Tsai, Thomas Praetzlich and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Temporal Features Using a Deep Neural Network and its Application to Music Genre Classification</t>
   </si>
   <si>
     <t xml:space="preserve">Il-Young Jeong and Kyogu Lee</t>
   </si>
   <si>
-    <t xml:space="preserve">Live Song Id: A Hashprint Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ Tsai, Thomas Praetzlich and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimax Viterbi Algorithm For Hmm-Based Guitar Fingering Decision</t>
+    <t xml:space="preserve">Meter Detection in Symbolic Music Using Inner Metric Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. Bas de Haas and Anja Volk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimax Viterbi Algorithm for HMM-Based Guitar Fingering Decision</t>
   </si>
   <si>
     <t xml:space="preserve">Gen Hori and Shigeki Sagayama</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixtape: Direction-Based Navigation In Large Music Collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joao Paulo V. Cardoso, Luciana Fujii Pontello, Pedro H. F. Holanda, Bruno Guilherme, Olga Goussevskaia and Ana Paula Couto da SIlva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musical Note Estimation For F0 Trajectories Of Singing Voices Based On A Bayesian Semi-Beat-Synchronous Hmm</t>
+    <t xml:space="preserve">Mixtape: Direction-Based Navigation in Large Media Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao Paulo V. Cardoso, Luciana Fujii Pontello, Pedro H. F. Holanda, Bruno Guilherme, Olga Goussevskaia and Ana Paula Couto da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musical Note Estimation for F0 Trajectories of Singing Voices Based on a Bayesian Semi-Beat-Synchronous HMM</t>
   </si>
   <si>
     <t xml:space="preserve">Ryo Nishikimi, Eita Nakamura, Katsutoshi Itoyama and Kazuyoshi Yoshii</t>
   </si>
   <si>
-    <t xml:space="preserve">On The Evaluation Of Rhythmic And Melodic Descriptors</t>
+    <t xml:space="preserve">On the Evaluation of Rhythmic and Melodic Descriptors for Music Similarity</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Panteli and Simon Dixon</t>
   </si>
   <si>
-    <t xml:space="preserve">On The Potential Of Simple Framewise Approaches To Piano Transcription</t>
+    <t xml:space="preserve">On the Potential of Simple Framewise Approaches to Piano Transcription</t>
   </si>
   <si>
     <t xml:space="preserve">Rainer Kelz, Matthias Dorfer, Filip Korzeniowski, Sebastian Böck, Andreas Arzt and Gerhard Widmer</t>
   </si>
   <si>
-    <t xml:space="preserve">Phrase-Level Audio Segmentation Of Jazz Improvisations Informed By Symbolic Data</t>
+    <t xml:space="preserve">Phrase-Level Audio Segmentation of Jazz Improvisations Informed by Symbolic Data</t>
   </si>
   <si>
     <t xml:space="preserve">Jeff Gregorio and Youngmoo Kim</t>
   </si>
   <si>
-    <t xml:space="preserve">Simultaneous Separation And Segmentation In Layered Music</t>
+    <t xml:space="preserve">Revisiting Priorities: Improving MIR Evaluation Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob L. Sturm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous Separation and Segmentation in Layered Music</t>
   </si>
   <si>
     <t xml:space="preserve">Prem Seetharaman and Bryan Pardo</t>
   </si>
   <si>
-    <t xml:space="preserve">Symbolic Meter Detection Using Inner Metric Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Bas de Haas and Anja Volk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Modeling And Decomposing Loop-Based Electronic Music</t>
+    <t xml:space="preserve">Towards Modeling and Decomposing Loop-Based Electronic Music</t>
   </si>
   <si>
     <t xml:space="preserve">Patricio López-Serrano, Christian Dittmar, Jonathan Driedger and Meinard Mueller</t>
   </si>
   <si>
-    <t xml:space="preserve">Two (Note) Heads Are Better Than One: Pen-Based Multimodal Interaction With Music Notation</t>
+    <t xml:space="preserve">Two (Note) Heads Are Better Than One: Pen-Based Multimodal Interaction with Music Scores</t>
   </si>
   <si>
     <t xml:space="preserve">Jorge Calvo-Zaragoza, David Rizo and Jose M. Iñesta</t>
   </si>
   <si>
-    <t xml:space="preserve">Whither The Design Of Experiments In Mir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob L. Sturm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Comparison Of Melody Extraction Methods Based On Source-Filter Modelling</t>
+    <t xml:space="preserve">A Comparison of Melody Extraction Methods Based on Source-Filter Modelling</t>
   </si>
   <si>
     <t xml:space="preserve">Juan J. Bosch, Rachel M. Bittner, Justin Salamon and Emilia Gómez</t>
@@ -567,85 +567,97 @@
     <t xml:space="preserve">08_poster-session-03</t>
   </si>
   <si>
-    <t xml:space="preserve">A Dataset For Automatic Practice Logging</t>
+    <t xml:space="preserve">An Analysis of Agreement in Classical Music Perception and its Relationship to Listener Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus Schedl, Hamid Eghbal-Zadeh, Emilia Gómez and Marko Tkalcic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Attack/Decay Model for Piano Transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tian Cheng, Matthias Mauch, Emmanouil Benetos and Simon Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Drum Transcription Using Bi-Directional Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Southall, Ryan Stables and Jason Hockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Practice Logging: Introduction, Dataset &amp; Preliminary Study</t>
   </si>
   <si>
     <t xml:space="preserve">R. Michael Winters, Siddharth Gururani and Alexander Lerch</t>
   </si>
   <si>
-    <t xml:space="preserve">An Analysis Of Agreement In Classical Music Perception And Its Relationship To Listener Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markus Schedl, Hamid Eghbal-Zadeh, Emilia Gómez and Marko Tkalcic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Drum Transcription Using Bi-Directional Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl Southall, Ryan Stables and Jason Hockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data-Driven Exploration Of Melodic Structure In Hindustani Music</t>
+    <t xml:space="preserve">Data-Driven Exploration of Melodic Structure in Hindustani Music</t>
   </si>
   <si>
     <t xml:space="preserve">Kaustuv Kanti Ganguli, Sankalp Gulati, Xavier Serra and Preeti Rao</t>
   </si>
   <si>
-    <t xml:space="preserve">Elucidating User Behavior In Music Services Through Persona And Gender</t>
+    <t xml:space="preserve">Deep Convolutional Networks on the Pitch Spiral For Music Instrument Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Lostanlen and Carmine Emanuele Cella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTV-Based Melody Cutting for DTW-Based Melody Search and Indexing in QbH Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartlomiej Stasiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elucidating User Behavior in Music Services Through Persona and Gender</t>
   </si>
   <si>
     <t xml:space="preserve">John Fuller, Lauren Hubener, Yea-Seul Kim and Jin Ha Lee</t>
   </si>
   <si>
-    <t xml:space="preserve">Exploring The Latent Structure Of Collaborations In Music Production</t>
+    <t xml:space="preserve">Exploring the Latent Structure of Collaborations in Music Recordings: A Case Study in Jazz</t>
   </si>
   <si>
     <t xml:space="preserve">Nazareno Andrade and Flavio Figueiredo</t>
   </si>
   <si>
+    <t xml:space="preserve">Global Properties of Expert and Algorithmic Hierarchical Music Analyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Kirlin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Human-Interactive Optical Music Recognition</t>
   </si>
   <si>
     <t xml:space="preserve">Liang Chen, Erik Stolterman and Christopher Raphael</t>
   </si>
   <si>
-    <t xml:space="preserve">I Said It First: Topological Analysis Of Lyrical Influence Networks</t>
+    <t xml:space="preserve">I Said it First: Topological Analysis of Lyrical Influence Networks</t>
   </si>
   <si>
     <t xml:space="preserve">Jack Atherton and Blair Kaneshiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact Of Music On Decision Making In Quantitative Tasks</t>
+    <t xml:space="preserve">Impact of Music on Decision Making in Quantitative Tasks</t>
   </si>
   <si>
     <t xml:space="preserve">Elad Liebman, Peter Stone and Corey White</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactive Scores In Classical Music Production</t>
+    <t xml:space="preserve">Interactive Scores in Classical Music Production</t>
   </si>
   <si>
     <t xml:space="preserve">Simon Waloschek, Axel Berndt, Benjamin W. Bohl and Aristotelis Hadjakos</t>
   </si>
   <si>
-    <t xml:space="preserve">Jazz Expressive Performance Modeling</t>
+    <t xml:space="preserve">Jazz Ensemble Expressive Performance Modeling</t>
   </si>
   <si>
     <t xml:space="preserve">Helena Bantulà, Sergio Giraldo and Rafael Ramírez</t>
   </si>
   <si>
-    <t xml:space="preserve">Large-Scale Organization Of Hierarchical Music Analyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phillip Kirlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Invariants For Instrument Recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Lostanlen and Carmine Emanuele Cella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining Musical Traits Of Social Functions In Native American Music</t>
+    <t xml:space="preserve">Mining Musical Traits of Social Functions in Native American Music</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Shanahan, Kerstin Neubarth and Darrell Conklin</t>
@@ -654,7 +666,7 @@
     <t xml:space="preserve">Mining Online Music Listening Trajectories</t>
   </si>
   <si>
-    <t xml:space="preserve">Flavio Figueiredo, Bruno Ribeiro, Jussara M. Almeida, Nazareno Andrade and Christos Faloutsos</t>
+    <t xml:space="preserve">Flavio Figueiredo, Bruno Ribeiro, Christos Faloutsos, Nazareno Andrade and Jussara M. Almeida</t>
   </si>
   <si>
     <t xml:space="preserve">Musical Typicality: How Many Similar Songs Exist?</t>
@@ -663,7 +675,7 @@
     <t xml:space="preserve">Tomoyasu Nakano, Daichi Mochihashi, Kazuyoshi Yoshii and Masataka Goto</t>
   </si>
   <si>
-    <t xml:space="preserve">Musicdb: A Platform For Longitudinal Music Analytics</t>
+    <t xml:space="preserve">MusicDB: A Platform for Longitudinal Music Analytics</t>
   </si>
   <si>
     <t xml:space="preserve">Jeremy Hyrkas and Bill Howe</t>
@@ -675,31 +687,19 @@
     <t xml:space="preserve">Hamid Eghbal-zadeh and Gerhard Widmer</t>
   </si>
   <si>
-    <t xml:space="preserve">On Practical Strategies Of Melody Indexing For Query By Humming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartlomiej Stasiak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On The Use Of Note Onsets For Improved Lyrics-To-Audio Alignment</t>
+    <t xml:space="preserve">On the Use of Note Onsets for Improved Lyrics-To-Audio Alignment in Turkish Makam Music</t>
   </si>
   <si>
     <t xml:space="preserve">Georgi Dzhambazov, Ajay Srinivasamurthy, Sertan Sentürk and Xavier Serra</t>
   </si>
   <si>
-    <t xml:space="preserve">Piano Transcription Using An Exponential Decay Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tian Cheng, Matthias Mauch, Emmanouil Benetos and Simon Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querying Xml Score Databases: Xquery Is Not Enough!</t>
+    <t xml:space="preserve">Querying XML Score Databases: XQuery is not Enough!</t>
   </si>
   <si>
     <t xml:space="preserve">Raphael Fournier-S'niehotta, Philippe Rigaux and Nicolas Travers</t>
   </si>
   <si>
-    <t xml:space="preserve">Recurrent Neural Networks For Drum Transcription</t>
+    <t xml:space="preserve">Recurrent Neural Networks for Drum Transcription</t>
   </si>
   <si>
     <t xml:space="preserve">Richard Vogl, Matthias Dorfer and Peter Knees</t>
@@ -714,22 +714,22 @@
     <t xml:space="preserve">Sparse Coding Based Music Genre Classification Using Spectro-Temporal Modulations</t>
   </si>
   <si>
-    <t xml:space="preserve">Chih-Shan Lin, Kai-Chun Hsu and Tai-Shih Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time-Delayed Melody Surfaces For Rāga Recognition</t>
+    <t xml:space="preserve">Kai-Chun Hsu, Chih-Shan Lin and Tai-Shih Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-Delayed Melody Surfaces for Rāga Recognition</t>
   </si>
   <si>
     <t xml:space="preserve">Sankalp Gulati, Joan Serrà, Kaustuv Kanti Ganguli, Sertan Şentürk and Xavier Serra</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcribing Human Piano Performances Into Music Notation</t>
+    <t xml:space="preserve">Transcribing Human Piano Performances into Music Notation</t>
   </si>
   <si>
     <t xml:space="preserve">Andrea Cogliati, David Temperley and Zhiyao Duan</t>
   </si>
   <si>
-    <t xml:space="preserve">Wimir: An Informetric Study On Women Authors In Ismir</t>
+    <t xml:space="preserve">WIMIR an Informetric Study on Women Authors in ISMIR</t>
   </si>
   <si>
     <t xml:space="preserve">Xiao Hu, Kahyun Choi, Jin Ha Lee, Audrey Laplante, Yun Hao, Sally Jo Cunningham and J. Stephen Downie</t>
@@ -3768,38 +3768,61 @@
     <t xml:space="preserve">Oral session 7: Deep-learning</t>
   </si>
   <si>
-    <t xml:space="preserve">01_poster-session-01</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sparse Coding Based Music Genre Classification Using Spectro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Temporal Modulations</t>
-    </r>
+    <t xml:space="preserve">AVA: An Interactive System for Visual And Quantitative Analyses of Vibrato and Portamento Performance Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversations with Expert Users in Music Retrieval and Research Challenges for Creative Mir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer Programming Formulation of The Problem of Generating Milton Babbitt's All-Partition Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structural Segmentation and Visualization of Sitar And Sarod Concert Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Task Study on Mirex Recent Results: An Index for Evolution Measurement and Some Stagnation Hypotheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploiting Frequency, Periodicity And Harmonicity Using Advanced Time-Frequency Concentration Techniques for Multipitch Estimation of Choir And Symphony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good-Sounds.Org: A Framework to Explore Goodness in Instrumental Sounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meter Detection in Symbolic Music using Inner Metric Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimax Viterbi Algorithm For HMM-Based Guitar Fingering Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixtape: Direction-Based Navigation In Large Media Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Evaluation of Rhythmic And Melodic Descriptors for Music Similarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous Separation and Segmentation In Layered Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Analysis of Agreement In Classical Music Perception and Its Relationship to Listener Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTV-Based Melody Cutting for DTW-Based Melody Search And Indexing In QbH Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Said It First: Topological Analysis of Lyrical Influence Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musicdb: A Platform for Longitudinal Music Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On The Use Of Note Onsets for Improved Lyrics-To-Audio Alignment in Turkish Makam Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querying XML Score Databases: Xquery is not Enough!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIMIR An Informetric Study On Women Authors In ISMIR</t>
   </si>
 </sst>
 </file>
@@ -3809,7 +3832,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3845,12 +3868,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3895,12 +3912,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3927,15 +3948,17 @@
   </sheetPr>
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2837209302326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.1441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="149.26511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="128.525581395349"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.72558139534884"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5023255813953"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,21 +4210,21 @@
         <v>32</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>274</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4238,7 @@
         <v>296</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,35 +4252,35 @@
         <v>27</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>105</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4294,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4308,7 @@
         <v>119</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,9 +4319,9 @@
         <v>58</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="D26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4312,7 +4335,7 @@
       <c r="C27" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4324,9 +4347,9 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="D28" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4338,9 +4361,9 @@
         <v>65</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="D29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4352,9 +4375,9 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="D30" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4366,9 +4389,9 @@
         <v>69</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="D31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4380,9 +4403,9 @@
         <v>71</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="D32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4394,9 +4417,9 @@
         <v>73</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="D33" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4408,9 +4431,9 @@
         <v>75</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="D34" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4424,7 +4447,7 @@
       <c r="C35" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4436,9 +4459,9 @@
         <v>79</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D36" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4450,9 +4473,9 @@
         <v>81</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="D37" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4464,9 +4487,9 @@
         <v>83</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="D38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4478,9 +4501,9 @@
         <v>85</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="D39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4492,9 +4515,9 @@
         <v>87</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4506,9 +4529,9 @@
         <v>89</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="D41" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4520,9 +4543,9 @@
         <v>91</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="D42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4534,9 +4557,9 @@
         <v>93</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="D43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4548,9 +4571,9 @@
         <v>95</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="D44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4562,9 +4585,9 @@
         <v>97</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="D45" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4578,7 +4601,7 @@
       <c r="C46" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4590,9 +4613,9 @@
         <v>101</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="D47" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4606,7 +4629,7 @@
       <c r="C48" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4618,9 +4641,9 @@
         <v>105</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="D49" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4632,9 +4655,9 @@
         <v>107</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="D50" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4646,9 +4669,9 @@
         <v>109</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="D51" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4660,9 +4683,9 @@
         <v>111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="D52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4674,9 +4697,9 @@
         <v>113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="D53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4688,9 +4711,9 @@
         <v>115</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D54" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4940,7 +4963,7 @@
         <v>152</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>118</v>
@@ -4954,7 +4977,7 @@
         <v>154</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>118</v>
@@ -4968,7 +4991,7 @@
         <v>156</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>118</v>
@@ -4982,7 +5005,7 @@
         <v>158</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>118</v>
@@ -4996,7 +5019,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>118</v>
@@ -5010,7 +5033,7 @@
         <v>162</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>118</v>
@@ -5024,7 +5047,7 @@
         <v>164</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>118</v>
@@ -5038,7 +5061,7 @@
         <v>166</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>118</v>
@@ -5052,7 +5075,7 @@
         <v>168</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>118</v>
@@ -5066,7 +5089,7 @@
         <v>170</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>118</v>
@@ -5080,7 +5103,7 @@
         <v>172</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>118</v>
@@ -5094,7 +5117,7 @@
         <v>174</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>118</v>
@@ -5108,7 +5131,7 @@
         <v>176</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>118</v>
@@ -5136,7 +5159,7 @@
         <v>181</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>179</v>
@@ -5150,7 +5173,7 @@
         <v>183</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>179</v>
@@ -5178,7 +5201,7 @@
         <v>187</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>179</v>
@@ -5192,7 +5215,7 @@
         <v>189</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>179</v>
@@ -5206,7 +5229,7 @@
         <v>191</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>179</v>
@@ -5220,7 +5243,7 @@
         <v>193</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>179</v>
@@ -5234,7 +5257,7 @@
         <v>195</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>179</v>
@@ -5248,7 +5271,7 @@
         <v>197</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>179</v>
@@ -5262,7 +5285,7 @@
         <v>199</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>179</v>
@@ -5276,7 +5299,7 @@
         <v>201</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>179</v>
@@ -5290,7 +5313,7 @@
         <v>203</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>179</v>
@@ -5304,7 +5327,7 @@
         <v>205</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>179</v>
@@ -5318,7 +5341,7 @@
         <v>207</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>179</v>
@@ -5332,7 +5355,7 @@
         <v>209</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>179</v>
@@ -5346,7 +5369,7 @@
         <v>211</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>179</v>
@@ -5360,7 +5383,7 @@
         <v>213</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>179</v>
@@ -5374,7 +5397,7 @@
         <v>215</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>179</v>
@@ -5388,7 +5411,7 @@
         <v>217</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>179</v>
@@ -5402,7 +5425,7 @@
         <v>219</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>179</v>
@@ -5416,13 +5439,13 @@
         <v>221</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>222</v>
       </c>
@@ -5544,4774 +5567,4774 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="3" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="3" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="3" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="3" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="3" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="3" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="3" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="s">
+      <c r="A273" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="3" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="3" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="3" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="3" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="3" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="3" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="3" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="3" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="3" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="3" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="3" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="3" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="3" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
+      <c r="A295" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="3" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="3" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="3" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="3" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="3" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="3" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="3" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="3" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="3" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="3" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="3" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="3" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="3" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="3" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="3" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="3" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="3" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="3" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="3" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="3" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="3" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="3" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="3" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="3" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="3" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="3" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="3" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="3" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="3" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="3" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="3" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="3" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="3" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="3" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="3" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="3" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="3" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="3" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="3" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="3" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="3" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="3" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="3" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="3" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="3" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="3" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="3" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="3" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="3" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="3" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="3" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="3" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="3" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="3" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="3" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="3" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="3" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="3" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="3" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="3" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="3" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="3" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="3" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="3" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="3" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="3" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="3" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="3" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="3" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="3" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="3" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="3" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="3" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="3" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="3" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="3" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="3" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="3" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="3" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="3" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="3" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="3" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="3" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="3" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="3" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="3" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="3" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="3" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="3" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="3" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="3" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="3" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="3" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="3" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="3" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="3" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="3" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="3" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="3" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="3" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="3" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="3" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="3" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="3" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="3" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="3" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="3" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="3" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="3" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="3" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="3" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="3" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2" t="s">
+      <c r="A408" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="3" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="3" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="3" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="3" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="3" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="3" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="3" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="3" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="3" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="3" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="3" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="3" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="3" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="3" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="3" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="3" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="3" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="3" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="2" t="s">
+      <c r="A426" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="3" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="3" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="3" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="3" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="3" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="3" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="3" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="3" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="3" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="3" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="3" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="3" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="3" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="3" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="3" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="3" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="3" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="3" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="3" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="3" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="3" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="2" t="s">
+      <c r="A449" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="2" t="s">
+      <c r="A465" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="2" t="s">
+      <c r="A473" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="3" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="3" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="2" t="s">
+      <c r="A483" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" s="3" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="2" t="s">
+      <c r="A484" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B484" s="3" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B485" s="3" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="3" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="2" t="s">
+      <c r="A487" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B487" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="3" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="2" t="s">
+      <c r="A490" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="2" t="s">
+      <c r="A491" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="2" t="s">
+      <c r="A492" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="2" t="s">
+      <c r="A493" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="2" t="s">
+      <c r="A496" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" s="3" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="2" t="s">
+      <c r="A497" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B497" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="2" t="s">
+      <c r="A498" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" s="3" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="2" t="s">
+      <c r="A499" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" s="3" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="2" t="s">
+      <c r="A501" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B501" s="3" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="2" t="s">
+      <c r="A502" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" s="3" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="2" t="s">
+      <c r="A503" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B503" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="2" t="s">
+      <c r="A504" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" s="3" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="2" t="s">
+      <c r="A507" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" s="3" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="2" t="s">
+      <c r="A509" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="3" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="2" t="s">
+      <c r="A510" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" s="3" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="2" t="s">
+      <c r="A511" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B511" s="3" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="3" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" s="3" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="2" t="s">
+      <c r="A515" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" s="3" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B516" s="3" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="2" t="s">
+      <c r="A517" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="3" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="3" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="2" t="s">
+      <c r="A519" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" s="3" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" s="3" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="2" t="s">
+      <c r="A521" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B521" s="3" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="2" t="s">
+      <c r="A522" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" s="3" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="3" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="2" t="s">
+      <c r="A524" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" s="3" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="2" t="s">
+      <c r="A525" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" s="3" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="2" t="s">
+      <c r="A526" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" s="3" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="3" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="2" t="s">
+      <c r="A528" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B528" s="3" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="2" t="s">
+      <c r="A529" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B529" s="3" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="2" t="s">
+      <c r="A530" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B530" s="3" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="3" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="3" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="2" t="s">
+      <c r="A533" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="3" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="2" t="s">
+      <c r="A534" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="3" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="2" t="s">
+      <c r="A535" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="3" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="3" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="3" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="2" t="s">
+      <c r="A538" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="3" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="2" t="s">
+      <c r="A539" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B539" s="3" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="2" t="s">
+      <c r="A540" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="3" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="3" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="2" t="s">
+      <c r="A542" s="3" t="s">
         <v>1155</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="3" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="2" t="s">
+      <c r="A543" s="3" t="s">
         <v>1157</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B543" s="3" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="2" t="s">
+      <c r="A544" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B544" s="3" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="2" t="s">
+      <c r="A545" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="2" t="s">
+      <c r="A547" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="2" t="s">
+      <c r="A548" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B550" s="3" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="2" t="s">
+      <c r="A551" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B551" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B552" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B553" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="2" t="s">
+      <c r="A554" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B554" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="2" t="s">
+      <c r="A556" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="2" t="s">
+      <c r="A557" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B557" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="2" t="s">
+      <c r="A559" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B559" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="2" t="s">
+      <c r="A560" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B560" s="3" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="2" t="s">
+      <c r="A561" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B561" s="3" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="2" t="s">
+      <c r="A562" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B562" s="3" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="2" t="s">
+      <c r="A563" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="B563" s="3" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="2" t="s">
+      <c r="A564" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B564" s="3" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="2" t="s">
+      <c r="A565" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B565" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="2" t="s">
+      <c r="A566" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B566" s="3" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="2" t="s">
+      <c r="A567" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="B567" s="3" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="2" t="s">
+      <c r="A568" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="B568" s="3" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="2" t="s">
+      <c r="A569" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B569" s="2" t="s">
+      <c r="B569" s="3" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="2" t="s">
+      <c r="A570" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="B570" s="2" t="s">
+      <c r="B570" s="3" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="2" t="s">
+      <c r="A571" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B571" s="3" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="2" t="s">
+      <c r="A572" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B572" s="3" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="2" t="s">
+      <c r="A573" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B573" s="3" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="2" t="s">
+      <c r="A574" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B574" s="3" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B575" s="3" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="2" t="s">
+      <c r="A576" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="B576" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="2" t="s">
+      <c r="A577" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="B577" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="2" t="s">
+      <c r="A578" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B578" s="3" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="2" t="s">
+      <c r="A579" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B579" s="3" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="2" t="s">
+      <c r="A580" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="B580" s="2" t="s">
+      <c r="B580" s="3" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="2" t="s">
+      <c r="A581" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B581" s="3" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="2" t="s">
+      <c r="A582" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B582" s="3" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="3" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="2" t="s">
+      <c r="A584" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B584" s="3" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="2" t="s">
+      <c r="A585" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B585" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="2" t="s">
+      <c r="A586" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B586" s="3" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="2" t="s">
+      <c r="A587" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="B587" s="2" t="s">
+      <c r="B587" s="3" t="s">
         <v>1220</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="2" t="s">
+      <c r="A588" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B588" s="3" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="2" t="s">
+      <c r="A589" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B589" s="2" t="s">
+      <c r="B589" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="2" t="s">
+      <c r="A590" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B590" s="3" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="2" t="s">
+      <c r="A591" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="B591" s="2" t="s">
+      <c r="B591" s="3" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="2" t="s">
+      <c r="A592" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B592" s="3" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="2" t="s">
+      <c r="A593" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B593" s="3" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="2" t="s">
+      <c r="A594" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B594" s="3" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="2" t="s">
+      <c r="A595" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B595" s="3" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="2" t="s">
+      <c r="A596" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B596" s="3" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -10339,10 +10362,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0511627906977"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.21395348837209"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10435,7 +10455,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>1245</v>
@@ -10446,7 +10466,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>1246</v>
@@ -10474,16 +10494,12 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.8232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.6046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,10 +10510,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1247</v>
+        <v>148</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10510,8 +10526,8 @@
       <c r="C2" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>1247</v>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,10 +10538,10 @@
         <v>63</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>1247</v>
+        <v>180</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10536,10 +10552,10 @@
         <v>65</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>1247</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10550,10 +10566,10 @@
         <v>67</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>1247</v>
+        <v>233</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10564,10 +10580,10 @@
         <v>69</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>1247</v>
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10578,10 +10594,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>1247</v>
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,24 +10608,24 @@
         <v>73</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>1247</v>
+        <v>215</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>1247</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>1247</v>
+        <v>314</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10622,22 +10638,22 @@
       <c r="C10" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>1247</v>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>1248</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>1247</v>
+        <v>246</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10648,10 +10664,10 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>1247</v>
+        <v>249</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10662,10 +10678,10 @@
         <v>83</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>1247</v>
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10676,10 +10692,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>1247</v>
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10690,10 +10706,10 @@
         <v>87</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>1247</v>
+        <v>240</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10704,10 +10720,10 @@
         <v>89</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>1247</v>
+        <v>289</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10718,24 +10734,24 @@
         <v>91</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>1247</v>
+        <v>129</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>1249</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>1247</v>
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10746,10 +10762,10 @@
         <v>95</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>1247</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10760,10 +10776,10 @@
         <v>97</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>1247</v>
+        <v>187</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10776,8 +10792,8 @@
       <c r="C21" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>1247</v>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10788,10 +10804,10 @@
         <v>101</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>1247</v>
+        <v>173</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10804,8 +10820,8 @@
       <c r="C23" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>1247</v>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10816,10 +10832,10 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>1247</v>
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10830,10 +10846,10 @@
         <v>107</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>1247</v>
+        <v>268</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10844,24 +10860,24 @@
         <v>109</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>1247</v>
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>110</v>
+        <v>1250</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>1247</v>
+        <v>151</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10872,10 +10888,10 @@
         <v>113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>1247</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10886,10 +10902,10 @@
         <v>115</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>1247</v>
+        <v>49</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10911,14 +10927,12 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,7 +11063,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>1251</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>136</v>
@@ -11091,7 +11105,7 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>1252</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>142</v>
@@ -11133,7 +11147,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>1253</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>148</v>
@@ -11167,7 +11181,7 @@
         <v>152</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>118</v>
@@ -11181,7 +11195,7 @@
         <v>154</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>118</v>
@@ -11189,13 +11203,13 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>1254</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>118</v>
@@ -11203,13 +11217,13 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>1255</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>118</v>
@@ -11217,13 +11231,13 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>1256</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>118</v>
@@ -11237,7 +11251,7 @@
         <v>162</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>118</v>
@@ -11245,13 +11259,13 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>1257</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>118</v>
@@ -11265,7 +11279,7 @@
         <v>166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>118</v>
@@ -11279,7 +11293,7 @@
         <v>168</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>118</v>
@@ -11293,7 +11307,7 @@
         <v>170</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>118</v>
@@ -11301,13 +11315,13 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>1258</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>118</v>
@@ -11321,7 +11335,7 @@
         <v>174</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>118</v>
@@ -11335,7 +11349,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>118</v>
@@ -11365,9 +11379,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.5906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.6883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11383,13 +11395,13 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>1259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11400,7 +11412,7 @@
         <v>183</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>260</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11422,7 +11434,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11433,7 +11445,7 @@
         <v>189</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,18 +11456,18 @@
         <v>191</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>251</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>1260</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11466,7 +11478,7 @@
         <v>195</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11477,7 +11489,7 @@
         <v>197</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11488,7 +11500,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>192</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11499,18 +11511,18 @@
         <v>201</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>1261</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,7 +11533,7 @@
         <v>205</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>93</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11532,7 +11544,7 @@
         <v>207</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11543,7 +11555,7 @@
         <v>209</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11554,7 +11566,7 @@
         <v>211</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11565,7 +11577,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>284</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11576,18 +11588,18 @@
         <v>215</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>37</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>216</v>
+        <v>1262</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>89</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11598,23 +11610,23 @@
         <v>219</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>243</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>1263</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>85</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>1264</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>223</v>
@@ -11647,7 +11659,7 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1248</v>
+        <v>228</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>229</v>
@@ -11680,7 +11692,7 @@
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>234</v>
+        <v>1265</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>235</v>

--- a/data/completePaperList.xlsx
+++ b/data/completePaperList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="paperList.txt" sheetId="1" state="visible" r:id="rId2"/>
@@ -3945,15 +3945,15 @@
   </sheetPr>
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.3674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,7 +5562,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10351,13 +10351,16 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0511627906977"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.21395348837209"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5023255813953"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10368,7 +10371,7 @@
         <v>1237</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10390,7 +10393,7 @@
         <v>1239</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10401,7 +10404,7 @@
         <v>1240</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10412,7 +10415,7 @@
         <v>1241</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10423,7 +10426,7 @@
         <v>1242</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10434,7 +10437,7 @@
         <v>1243</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,7 +10448,7 @@
         <v>1244</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,7 +10497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10927,7 +10930,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11374,7 +11377,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/completePaperList.xlsx
+++ b/data/completePaperList.xlsx
@@ -13,7 +13,7 @@
     <sheet name="programCommittee" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="reviewersFirstLastSeparate" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="sessions" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="sessionsManualPages" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="session_index" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="posters1sorted" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="posters2sorted" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="posters3sorted" sheetId="9" state="visible" r:id="rId10"/>
@@ -12872,7 +12872,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12899,7 +12899,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>1525</v>
@@ -12910,7 +12910,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>1526</v>
@@ -12921,7 +12921,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1527</v>
@@ -12932,7 +12932,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>1528</v>
@@ -12943,7 +12943,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>1529</v>
@@ -12954,7 +12954,7 @@
         <v>147</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>1530</v>
@@ -12965,7 +12965,7 @@
         <v>156</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>1531</v>
@@ -12976,7 +12976,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>1532</v>
@@ -12987,7 +12987,7 @@
         <v>222</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>1533</v>
@@ -12998,7 +12998,7 @@
         <v>231</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>1534</v>

--- a/data/completePaperList.xlsx
+++ b/data/completePaperList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1560">
   <si>
     <t xml:space="preserve">SiMPle: Assessing Music Similarity Using Subsequences Joins</t>
   </si>
@@ -222,4441 +222,4444 @@
     <t xml:space="preserve">T. P. Vinutha, Suryanarayana Sankagiri, Kaustuv Kanti Ganguli and Preeti Rao</t>
   </si>
   <si>
+    <t xml:space="preserve">Template-Based Vibrato Analysis of Music Signals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Driedger, Stefan Balke, Sebastian Ewert and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towards Evaluating Multiple Predominant Melody Annotations in Jazz Recordings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Balke, Jonathan Driedger, Jakob Abesser, Christian Dittmar and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Beat and Downbeat Tracking with Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Böck, Florian Krebs and Gerhard Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_oral-session-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian Meter Tracking on Learned Signal Representations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Holzapfel and Thomas Grill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo Estimation for Music Loops and a Simple Confidence Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederic Font and Xavier Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain Beats: Tempo Extraction from EEG Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Stober, Thomas Prätzlich and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Plan for Sustainable MIR Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian McFee, Eric Humphrey and Julián Urbano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_oral-session-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go with the Flow: When Listeners Use Music as Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Demetriou, Martha Larson and Cynthia C. S. Liem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Look at the Cloud from Both Sides Now: An Analysis of Cloud Music Service Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jin Ha Lee, Yea-Seul Kim and Chris Hubbles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hierarchical Bayesian Model of Chords, Pitches, and Spectrograms for Multipitch Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuta Ojima, Eita Nakamura, Katsutoshi Itoyama and Kazuyoshi Yoshii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_poster-session-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Higher-Dimensional Expansion of Affective Norms for English Terms for Music Tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Buccoli, Massimiliano Zanoni, György Fazekas, Augusto Sarti and Mark Sandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Latent Representation of Users, Sessions, and Songs for Listening Behavior Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chia-Hao Chung, Jing-Kai Lou and Homer Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Methodology for Quality Assessment in Collaborative Score Libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Besson, Marco Gurrieri, Philippe Rigaux, Alice Tacaille and Virginie Thion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aligned Hierarchies: A Multi-Scale Structure-Based Representation for Music-Based Data Streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine M. Kinnaird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysing Scattering-Based Music Content Analysis Systems: Where's the Music?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Rodríguez-Algarra, Bob L. Sturm and Hugo Maruri-Aguilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beat Tracking with a Cepstroid Invariant Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anders Elowsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrapping a System for Phoneme Recognition and Keyword Spotting in Unaccompanied Singing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Kruspe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Microblogs Predict Music Charts? An Analysis of the Relationship Between #Nowplaying Tweets and Music Charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Zangerle, Martin Pichl, Benedikt Hupfauf and Günther Specht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross Task Study on MIREX Recent Results: An Index for Evolution Measurement and Some Stagnation Hypotheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Scholz, Geber Ramalho and Giordano Cabral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-Collection Evaluation for Music Classification Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitry Bogdanov, Alastair Porter, Perfecto Herrera and Xavier Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downbeat Detection with Conditional Random Fields and Deep Learned Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Durand and Slim Essid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploiting Frequency, Periodicity and Harmonicity Using Advanced Time-Frequency Concentration Techniques for Multipitch Estimation of Choir and Symphony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Su, Tsung-Ying Chuang and Yi-Hsuan Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre Ontology Learning: Comparing Curated with Crowd-Sourced Ontologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendrik Schreiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre Specific Dictionaries for Harmonic/Percussive Source Separation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clément Laroche, Hélène Papadopoulos, Matthieu Kowalski and Gaël Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good-sounds.org: A Framework to Explore Goodness in Instrumental Sounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giuseppe Bandiera, Oriol Romani Picas and Xavier Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving Predictions of Derived Viewpoints in Multiple Viewpoints Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hedges and Geraint Wiggins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known Artist Live Song ID: A Hashprint Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ Tsai, Thomas Prätzlich and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Temporal Features Using a Deep Neural Network and its Application to Music Genre Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il-Young Jeong and Kyogu Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meter Detection in Symbolic Music Using Inner Metric Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. Bas de Haas and Anja Volk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimax Viterbi Algorithm for HMM-Based Guitar Fingering Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen Hori and Shigeki Sagayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixtape: Direction-Based Navigation in Large Media Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao Paulo V. Cardoso, Luciana Fujii Pontello, Pedro H. F. Holanda, Bruno Guilherme, Olga Goussevskaia and Ana Paula Couto da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musical Note Estimation for F0 Trajectories of Singing Voices Based on a Bayesian Semi-Beat-Synchronous HMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryo Nishikimi, Eita Nakamura, Katsutoshi Itoyama and Kazuyoshi Yoshii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Evaluation of Rhythmic and Melodic Descriptors for Music Similarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Panteli and Simon Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Potential of Simple Framewise Approaches to Piano Transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainer Kelz, Matthias Dorfer, Filip Korzeniowski, Sebastian Böck, Andreas Arzt and Gerhard Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrase-Level Audio Segmentation of Jazz Improvisations Informed by Symbolic Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Gregorio and Youngmoo Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisiting Priorities: Improving MIR Evaluation Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob L. Sturm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous Separation and Segmentation in Layered Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prem Seetharaman and Bryan Pardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towards Modeling and Decomposing Loop-Based Electronic Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricio López-Serrano, Christian Dittmar, Jonathan Driedger and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two (Note) Heads Are Better Than One: Pen-Based Multimodal Interaction with Music Scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Calvo-Zaragoza, David Rizo and Jose M. Iñesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzing Measure Annotations for Western Classical Music Recordings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christof Weiß, Vlora Arifi-Müller, Thomas Prätzlich, Rainer Kleinertz and Meinard Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_oral-session-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumental Idiom in the 16th Century: Embellishment Patterns in Arrangements of Vocal Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Lewis, Tim Crawford and Daniel Müllensiefen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sousta Corpus: Beat-Informed Automatic Transcription of Traditional Dance Tunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Holzapfel and Emmanouil Benetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning a Feature Space for Similarity in World Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Panteli, Emmanouil Benetos and Simon Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systematic Exploration of Computational Music Structure Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriol Nieto and Juan Pablo Bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_oral-session-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Priors to Improve Estimates of Music Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Smith and Masataka Goto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music Structural Segmentation Across Genres with Gammatone Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Tian and Mark Sandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Comparison of Melody Extraction Methods Based on Source-Filter Modelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan J. Bosch, Rachel M. Bittner, Justin Salamon and Emilia Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_poster-session-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Analysis of Agreement in Classical Music Perception and its Relationship to Listener Characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus Schedl, Hamid Eghbal-zadeh, Emilia Gómez and Marko Tkalcic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Attack/Decay Model for Piano Transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tian Cheng, Matthias Mauch, Emmanouil Benetos and Simon Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Drum Transcription Using Bi-Directional Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl Southall, Ryan Stables and Jason Hockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Practice Logging: Introduction, Dataset &amp; Preliminary Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Michael Winters, Siddharth Gururani and Alexander Lerch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-Driven Exploration of Melodic Structure in Hindustani Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaustuv Kanti Ganguli, Sankalp Gulati, Xavier Serra and Preeti Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Convolutional Networks on the Pitch Spiral For Music Instrument Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Lostanlen and Carmine Emanuele Cella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTV-Based Melody Cutting for DTW-Based Melody Search and Indexing in QbH Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartlomiej Stasiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elucidating User Behavior in Music Services Through Persona and Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Fuller, Lauren Hubener, Yea-Seul Kim and Jin Ha Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the Latent Structure of Collaborations in Music Recordings: A Case Study in Jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazareno Andrade and Flavio Figueiredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Properties of Expert and Algorithmic Hierarchical Music Analyses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Kirlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-Interactive Optical Music Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liang Chen, Erik Stolterman and Christopher Raphael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Said it First: Topological Analysis of Lyrical Influence Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Atherton and Blair Kaneshiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of Music on Decision Making in Quantitative Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elad Liebman, Peter Stone and Corey White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactive Scores in Classical Music Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Waloschek, Axel Berndt, Benjamin W. Bohl and Aristotelis Hadjakos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Ensemble Expressive Performance Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena Bantulà, Sergio Giraldo and Rafael Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining Musical Traits of Social Functions in Native American Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Shanahan, Kerstin Neubarth and Darrell Conklin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining Online Music Listening Trajectories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavio Figueiredo, Bruno Ribeiro, Christos Faloutsos, Nazareno Andrade and Jussara M. Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musical Typicality: How Many Similar Songs Exist?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomoyasu Nakano, Daichi Mochihashi, Kazuyoshi Yoshii and Masataka Goto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MusicDB: A Platform for Longitudinal Music Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy Hyrkas and Bill Howe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise Robust Music Artist Recognition Using I-Vector Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamid Eghbal-zadeh and Gerhard Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the Use of Note Onsets for Improved Lyrics-To-Audio Alignment in Turkish Makam Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgi Dzhambazov, Ajay Srinivasamurthy, Sertan Sentürk and Xavier Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querying XML Score Databases: XQuery is not Enough!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphael Fournier-S'niehotta, Philippe Rigaux and Nicolas Travers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent Neural Networks for Drum Transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Vogl, Matthias Dorfer and Peter Knees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singing Voice Melody Transcription Using Deep Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">François Rigaud and Mathieu Radenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparse Coding Based Music Genre Classification Using Spectro-Temporal Modulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kai-Chun Hsu, Chih-Shan Lin and Tai-Shih Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-Delayed Melody Surfaces for Rāga Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankalp Gulati, Joan Serrà, Kaustuv Kanti Ganguli, Sertan Şentürk and Xavier Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcribing Human Piano Performances into Music Notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Cogliati, David Temperley and Zhiyao Duan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WiMIR: An Informetric Study On Women Authors In ISMIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiao Hu, Kahyun Choi, Jin Ha Lee, Audrey Laplante, Yun Hao, Sally Jo Cunningham and J. Stephen Downie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Melodic Reduction Using a Supervised Probabilistic Context-Free Grammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Groves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_oral-session-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Neural Greedy Model for Voice Separation in Symbolic Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Gray and Razvan Bunescu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towards Score Following In Sheet Music Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias Dorfer, Andreas Arzt and Gerhard Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracting Ground-Truth Information from MIDI Files: A MIDIfesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Raffel and Daniel Ellis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Tagging Using Deep Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keunwoo Choi, György Fazekas and Mark Sandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_oral-session-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hybrid Gaussian-HMM-Deep Learning Approach for Automatic Chord Estimation with Very Large Vocabulary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junqi Deng and Yu-Kwong Kwok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melody Extraction on Vocal Segments Using Multi-Column Deep Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangeun Kum, Changheun Oh and Juhan Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob Abesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islah Ali-MacLachlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joakim Anden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Arjannikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leandro Balby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Balke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel Barbancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Maria Barbancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Bellogín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Bemman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilberto Bernardes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Bigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Robert Bisaillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Bishop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitry Bogdanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciril Bohak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordi Bonada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Bonafonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanjo Bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keki Burjorjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Byrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo Caetano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Eduardo Cancino Chacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estefania Cano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Carabias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Caro Repetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Cartwright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorian Cazau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tak-Shing Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chih-Ming Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuo Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srikanth Cherla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Hao Chin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahyun Choi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chia-Hao Chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Cogliati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debora Correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courtenay Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuele Coviello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brecht De Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norberto Degara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junqi Deng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnaud Dessein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandra Dhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Durand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamid Eghbal-Zadeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slim Essid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Essinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhe-Cheng Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ángel Faraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiago Fernandes Tavares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Fillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derry Fitzgerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederic Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Foster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Gagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joachim Ganseman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Gasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggelos Gkiokas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolf Inge Godøy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rong Gong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yupeng Gu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankalp Gulati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chun Guo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Gurevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masatoshi Hamanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre Hanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yun Hao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Hargreaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Hedges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Hockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Hui Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po-Sen Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsutoshi Itoyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximos Kaliakatsos-Papakostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blair Kaneshiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Katsiavalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainer Kelz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minje Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anssi Klapuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainer Kleinertz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro Koerich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Koops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filip Korzeniowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florian Krebs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadine Kroher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lun-Wei Ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Kurth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathieu Lagrange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin Laney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thibault Langlois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivier Lartillot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyogu Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang Won Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernhard Lehner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias Leimeister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Levy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bochen Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawen Liang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Lidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elad Liebman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuan-Pin Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jen-Yu Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yi-Wen Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Liuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine Liutkus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jörn Loviscach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lie Lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanna Lukashevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athanasios Lykartsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricio López-Serrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson Machado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akira Maezawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Pedro Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matija Marolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica Marrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Marsden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Martins de Matos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agustin Martorell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panayotis Mavromatis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian McFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cory McKay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedric Mesnage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Milne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylianos Mimilakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marius Miron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirk Moelants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Morton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela Morvidone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Müllensiefen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidehisa Nagano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eita Nakamura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Navarro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerstin Neubarth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Nichols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriol Nieto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsunori Ogihara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurizio Omologo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Oramas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vito Ostuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken O’Hanlon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francois Pachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rui Pedro Paiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tae Hong Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jouni Paulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucien Perticoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Pertusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Pestana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggelos Pikrakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordi Pons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip Popp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alastair Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurent Pugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elio Quinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Raffel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zafar Rafii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathieu Ramona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preeti Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iris Ren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang Ren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolin Rindfleisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Ringwalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Rizo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias Robine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Rodriguez Algarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo Rodríguez López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerard Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Rowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Salamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Sargent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Schindler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Schlueter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bjoern Schuller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prem Seetharaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddharth Sanjay Sigtia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holly Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Siwiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joren Six</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Slizovskaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lloyd Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinhard Sonnleitner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Sprechmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay Srinivasamurthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Stables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabian-Robert Stoeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Summers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florian Thalmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi Tian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko Tkalcic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Tourtellot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosetsu Tsukuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreu Vall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Valle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marnix van Berchum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastiaan van der Weij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leigh VanHandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gissel Velarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naresh Vempala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Vigliensoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Vogl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xing Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsin-Min Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheng-i Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xinxi Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron Weiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christof Weiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Whalley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Wolff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Woolhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chih-Wei Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fu-Hai Frank Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guangyu Xia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mu-Heng Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asteris Zacharakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Zangerle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massimiliano Zanoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Zapata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yichi Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cárthach Ó Nuanáin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sertan Şentürk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Julien Aucouturier, IRCAM/CNRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanouil Benetos, Queen Mary University of London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Böck, Johannes Kepler University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Ashley Burgoyne, j.a.burgoyne@uva.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ching-Hua Chuan, University of North Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Collins, De Montfort University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sally Jo Cunningham, Waikato University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Dannenberg, Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Davies, INESC TEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. Bas de Haas, Chordify/Utrecht University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Dittmar, International Audio Laboratories Erlangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Dixon, Queen Mary University of London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Stephen Downie, Graduate School of Library &amp; Information Science, University of Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhiyao Duan, University of Rochester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas Eck, Google, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Ehmann, Pandora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Ewert, Queen Mary University of London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Fazekas, Queen Mary University of London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Fields, Goldsmiths University of London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Flexer, Austrian Research Institute for Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Fornari, UNICAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ichiro Fujinaga, McGill University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilia Gómez, Universitat Pompeu Fabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masataka Goto, National Institute of Advanced Industrial Science and Technology (AIST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabien Gouyon, Pandora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maarten Grachten, Austrian Research Institute for Artificial Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Hankinson, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorien Herremans, Queen Mary University of London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfecto Herrera, Universitat Pompeu Fabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre Holzapfel, OFAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiao Hu, University of Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Humphrey, Spotify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozgur Izmirli, Connecticut College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Knees, Johannes Kepler University Linz, Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Lamere, Spotify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey Laplante, Université de Montréal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jin Ha Lee, University of Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia Liem, Delft University of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Mandel, Brooklyn College, CUNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt McVicar, University of Bristol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meinard Mueller, International Audio Laboratories Erlangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicola Orio, University of Padua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Page, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helene Papadopoulos, CNRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoffroy Peeters, UMR STMS (IRCAM-CNRS-UPMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Prockup, Drexel University / Pandora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo Queiroz, University of São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Schmidt, Pandora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeffrey Scott, Gracenote, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier Serra, Universitat Pompeu Fabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Sordo, Pandora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Sturm, QMUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Su, Academia Sinica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Temperley, Eastman School of Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián Urbano, Universitat Pompeu Fabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Van Kranenburg, Meertens Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anja Volk, Utrecht University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ju-Chiang Wang, Cisco Systems Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yi-Hsuan Yang, Academia Sinica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuyoshi Yoshii, Kyoto University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdallah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teppo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albrecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali-MacLachlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aljanaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alluri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagnostopoulou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amélie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arjannikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assayag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Julien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucouturier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bailes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bainbridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giuseppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barthet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baumann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazzica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dogaç</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Başaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serafina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellogín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bemman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanouil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frédéric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bimbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisaillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bittner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dmitry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogdanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonafonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bountouridis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouwer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bozkurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buccoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Ashley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgoyne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burjorjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Böck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caetano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambouropoulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Eduardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancino Chacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estefania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carabias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baptiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caramiaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caro Repetto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartwright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castaignet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cazau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmine Emanuele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Taylan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cemgil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tak-Shing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chih-Ming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srikanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Hao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahyun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keunwoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szu-Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ching-Hua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chia-Hao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciglar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cogliati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collecchia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conklin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arshia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courtenay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coviello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sally Jo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunningham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuthbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dannenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tijl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Bie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Haas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Roure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alceu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Souza Britto Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Valk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debruyne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junqi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devaney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di Giorgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dieleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dittmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shyamala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doraisamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Stephen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dressler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driedger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhiyao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dzhambazov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eerola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eghbal-Zadeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egozy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elowsson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ewert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhe-Cheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ángel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morwaread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazekas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernandes Tavares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiebrink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitzgerald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flossmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonseca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fornari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ichiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujinaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takuya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujishima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fukayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaertner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joachim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganseman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Cenk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gingras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giraud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gkiokas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glennon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolf Inge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godøy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goebl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masataka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fab2en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maarten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grachten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grohganz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grunberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynthia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yupeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catherine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guastavino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankalp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masatoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Han</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hankinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hargreaves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hedges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herremans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoffman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holzapfel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henkjan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honingh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yajie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po-Sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yu-Hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humphrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iazzetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbrasaite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vignesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISMIR 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akinori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsutoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itoyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozgur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izmirli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakubowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jancovic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janssen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ping-Keng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristoffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanghoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junque de Fortuny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliakatsos-Papakostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaneshiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haruhiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katayose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katsiavalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damián</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kereliuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirchhoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetsuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klapuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleinertz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knopke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopala Krishna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koduri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koenigstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koerich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munevver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marijn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koolen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korzeniowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katerina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krebs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kroher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kruspe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lun-Wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagrange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thibault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langlois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laplante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lartillot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lattner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyogu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jin Ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang Won</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lehmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lehner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leimeister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kjell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemstrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bochen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lidy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daryl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yin-Tzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuan-Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yi-Wen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jen-Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antoine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liutkus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobato Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jörn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loviscach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukashevich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athanasios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lykartsis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">López-Serrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maezawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maia Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jônatas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manzolli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margulis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Gustavo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martins de Matos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agustin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martorell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panayotis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mavromatis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McFee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McKay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McVicar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annamaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesaros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meseguer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesnage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mimilakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moelants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeyersoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montecchio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artemis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morvidone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moussallam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meinard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Müllensiefen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidehisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakamura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomoyasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masahiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navarro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerstin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neubarth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdoulaye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nichols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsunori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogihara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasunori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omologo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobutaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oomen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oramas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozerov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O’Hanlon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rui Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palhazi Cuervo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panteli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hélène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papadopoulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tae Hong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jouni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauwels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pearce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoffroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perticoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matevž</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pestana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pikrakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phillip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alastair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praetzlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preinfalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prockup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proutskova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queiroz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanislaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raczynski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raphael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rindfleisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringwalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocamora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez Algarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez López</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohrmeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruthmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadakata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigeki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sagayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetsuya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig Stuart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sargent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarroff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flávio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiavoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schindler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlueter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schnitzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bjoern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeffrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seetharaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serrà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seyerlehner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddharth Sanjay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigtia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sioros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siwiak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malcolm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slaney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slizovskaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smaragdis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lloyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soboroff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soleymani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonnleitner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sordo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprechmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinivasamurthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabian-Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvin Wen Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subramanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tardieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tjoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tkalcic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toiviainen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourtellot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godfried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toussaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsagkias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wei-Ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosetsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsukuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnbull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tzanetakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yonatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaizman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valero-Mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Balen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marnix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van Berchum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastiaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van der Weij</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Kranenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VanHandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaquero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aneesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vartakavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gissel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veltkamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vempala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigliensoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtanen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanderley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ju-Chiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xinxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsin-Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jia-Ching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheng-i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wouter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weerkamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weinstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tillman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whalley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiggins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williamson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilmering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woolhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fu-Hai Frank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chih-Wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guangyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yadati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yi-Hsuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mu-Heng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazuyoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoshii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sølvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ystad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asteris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacharakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagorski-Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zangerle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massimiliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zanoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Ricardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zbikowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cárthach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ó Nuanáin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sertan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Şentürk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Şimşekli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 1: Mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster session 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 2: Rhythm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 3: Users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster session 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 4: Musicologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 5: Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster session 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 6: Symbolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral session 7: Deep-learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVA: An Interactive System for Visual And Quantitative Analyses of Vibrato and Portamento Performance Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversations with Expert Users in Music Retrieval and Research Challenges for Creative Mir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer Programming Formulation of The Problem of Generating Milton Babbitt's All-Partition Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structural Segmentation and Visualization of Sitar And Sarod Concert Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinutha T. P., Suryanarayana Sankagiri, Kaustuv Kanti Ganguli and Preeti Rao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Template-Based Vibrato Analysis in Complex Music Signals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan Driedger, Stefan Balke, Sebastian Ewert and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Evaluating Multiple Predominant Melody Annotations in Jazz Recordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefan Balke, Jonathan Driedger, Jakob Abesser, Christian Dittmar and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joint Beat and Downbeat Tracking with Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Böck, Florian Krebs and Gerhard Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_oral-session-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayesian Meter Tracking on Learned Signal Representations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre Holzapfel and Thomas Grill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Estimation for Music Loops and a Simple Confidence Measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederic Font and Xavier Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain Beats: Tempo Extraction from EEG Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Stober, Thomas Prätzlich and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Plan for Sustainable MIR Evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian McFee, Eric Humphrey and Julián Urbano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_oral-session-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go with the Flow: When Listeners Use Music as Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Demetriou, Martha Larson and Cynthia C. S. Liem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Look at the Cloud from Both Sides Now: An Analysis of Cloud Music Service Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jin Ha Lee, Yea-Seul Kim and Chris Hubbles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Hierarchical Bayesian Model of Chords, Pitches, and Spectrograms for Multipitch Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuta Ojima, Eita Nakamura, Katsutoshi Itoyama and Kazuyoshi Yoshii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_poster-session-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Higher-Dimensional Expansion of Affective Norms for English Terms for Music Tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele Buccoli, Massimiliano Zanoni, György Fazekas, Augusto Sarti and Mark Sandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Latent Representation of Users, Sessions, and Songs for Listening Behavior Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chia-Hao Chung, Jing-Kai Lou and Homer Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Methodology for Quality Assessment in Collaborative Score Libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Besson, Marco Gurrieri, Philippe Rigaux, Alice Tacaille and Virginie Thion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aligned Hierarchies: A Multi-Scale Structure-Based Representation for Music-Based Data Streams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katherine M. Kinnaird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysing Scattering-Based Music Content Analysis Systems: Where's the Music?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Rodríguez-Algarra, Bob L. Sturm and Hugo Maruri-Aguilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beat Tracking with a Cepstroid Invariant Neural Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anders Elowsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootstrapping a System for Phoneme Recognition and Keyword Spotting in Unaccompanied Singing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna Kruspe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Microblogs Predict Music Charts? An Analysis of the Relationship Between #Nowplaying Tweets and Music Charts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Zangerle, Martin Pichl, Benedikt Hupfauf and Günther Specht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross Task Study on MIREX Recent Results: An Index for Evolution Measurement and Some Stagnation Hypotheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Scholz, Geber Ramalho and Giordano Cabral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-Collection Evaluation for Music Classification Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmitry Bogdanov, Alastair Porter, Perfecto Herrera and Xavier Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downbeat Detection with Conditional Random Fields and Deep Learned Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Durand and Slim Essid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploiting Frequency, Periodicity and Harmonicity Using Advanced Time-Frequency Concentration Techniques for Multipitch Estimation of Choir and Symphony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li Su, Tsung-Ying Chuang and Yi-Hsuan Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genre Ontology Learning: Comparing Curated with Crowd-Sourced Ontologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hendrik Schreiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genre Specific Dictionaries for Harmonic/Percussive Source Separation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clément Laroche, Hélène Papadopoulos, Matthieu Kowalski and Gaël Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good-sounds.org: A Framework to Explore Goodness in Instrumental Sounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giuseppe Bandiera, Oriol Romani Picas and Xavier Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improving Predictions of Derived Viewpoints in Multiple Viewpoints Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Hedges and Geraint Wiggins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known Artist Live Song ID: A Hashprint Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ Tsai, Thomas Prätzlich and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning Temporal Features Using a Deep Neural Network and its Application to Music Genre Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il-Young Jeong and Kyogu Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meter Detection in Symbolic Music Using Inner Metric Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Bas de Haas and Anja Volk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimax Viterbi Algorithm for HMM-Based Guitar Fingering Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen Hori and Shigeki Sagayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixtape: Direction-Based Navigation in Large Media Collections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joao Paulo V. Cardoso, Luciana Fujii Pontello, Pedro H. F. Holanda, Bruno Guilherme, Olga Goussevskaia and Ana Paula Couto da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musical Note Estimation for F0 Trajectories of Singing Voices Based on a Bayesian Semi-Beat-Synchronous HMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryo Nishikimi, Eita Nakamura, Katsutoshi Itoyama and Kazuyoshi Yoshii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Evaluation of Rhythmic and Melodic Descriptors for Music Similarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Panteli and Simon Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Potential of Simple Framewise Approaches to Piano Transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainer Kelz, Matthias Dorfer, Filip Korzeniowski, Sebastian Böck, Andreas Arzt and Gerhard Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phrase-Level Audio Segmentation of Jazz Improvisations Informed by Symbolic Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeff Gregorio and Youngmoo Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisiting Priorities: Improving MIR Evaluation Practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob L. Sturm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simultaneous Separation and Segmentation in Layered Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prem Seetharaman and Bryan Pardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Modeling and Decomposing Loop-Based Electronic Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio López-Serrano, Christian Dittmar, Jonathan Driedger and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two (Note) Heads Are Better Than One: Pen-Based Multimodal Interaction with Music Scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Calvo-Zaragoza, David Rizo and Jose M. Iñesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzing Measure Annotations for Western Classical Music Recordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christof Weiß, Vlora Arifi-Müller, Thomas Prätzlich, Rainer Kleinertz and Meinard Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_oral-session-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrumental Idiom in the 16th Century: Embellishment Patterns in Arrangements of Vocal Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Lewis, Tim Crawford and Daniel Müllensiefen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sousta Corpus: Beat-Informed Automatic Transcription of Traditional Dance Tunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre Holzapfel and Emmanouil Benetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning a Feature Space for Similarity in World Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Panteli, Emmanouil Benetos and Simon Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systematic Exploration of Computational Music Structure Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriol Nieto and Juan Pablo Bello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07_oral-session-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using Priors to Improve Estimates of Music Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan Smith and Masataka Goto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music Structural Segmentation Across Genres with Gammatone Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi Tian and Mark Sandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Comparison of Melody Extraction Methods Based on Source-Filter Modelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan J. Bosch, Rachel M. Bittner, Justin Salamon and Emilia Gómez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08_poster-session-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Analysis of Agreement in Classical Music Perception and its Relationship to Listener Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markus Schedl, Hamid Eghbal-zadeh, Emilia Gómez and Marko Tkalcic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Attack/Decay Model for Piano Transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tian Cheng, Matthias Mauch, Emmanouil Benetos and Simon Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Drum Transcription Using Bi-Directional Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl Southall, Ryan Stables and Jason Hockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Practice Logging: Introduction, Dataset &amp; Preliminary Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R. Michael Winters, Siddharth Gururani and Alexander Lerch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data-Driven Exploration of Melodic Structure in Hindustani Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaustuv Kanti Ganguli, Sankalp Gulati, Xavier Serra and Preeti Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep Convolutional Networks on the Pitch Spiral For Music Instrument Recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Lostanlen and Carmine Emanuele Cella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTV-Based Melody Cutting for DTW-Based Melody Search and Indexing in QbH Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bartlomiej Stasiak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elucidating User Behavior in Music Services Through Persona and Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Fuller, Lauren Hubener, Yea-Seul Kim and Jin Ha Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploring the Latent Structure of Collaborations in Music Recordings: A Case Study in Jazz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nazareno Andrade and Flavio Figueiredo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Properties of Expert and Algorithmic Hierarchical Music Analyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phillip Kirlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human-Interactive Optical Music Recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liang Chen, Erik Stolterman and Christopher Raphael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Said it First: Topological Analysis of Lyrical Influence Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack Atherton and Blair Kaneshiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact of Music on Decision Making in Quantitative Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elad Liebman, Peter Stone and Corey White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactive Scores in Classical Music Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Waloschek, Axel Berndt, Benjamin W. Bohl and Aristotelis Hadjakos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazz Ensemble Expressive Performance Modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helena Bantulà, Sergio Giraldo and Rafael Ramírez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining Musical Traits of Social Functions in Native American Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Shanahan, Kerstin Neubarth and Darrell Conklin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining Online Music Listening Trajectories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavio Figueiredo, Bruno Ribeiro, Christos Faloutsos, Nazareno Andrade and Jussara M. Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musical Typicality: How Many Similar Songs Exist?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomoyasu Nakano, Daichi Mochihashi, Kazuyoshi Yoshii and Masataka Goto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MusicDB: A Platform for Longitudinal Music Analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremy Hyrkas and Bill Howe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noise Robust Music Artist Recognition Using I-Vector Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamid Eghbal-zadeh and Gerhard Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Use of Note Onsets for Improved Lyrics-To-Audio Alignment in Turkish Makam Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgi Dzhambazov, Ajay Srinivasamurthy, Sertan Sentürk and Xavier Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Querying XML Score Databases: XQuery is not Enough!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raphael Fournier-S'niehotta, Philippe Rigaux and Nicolas Travers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent Neural Networks for Drum Transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Vogl, Matthias Dorfer and Peter Knees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singing Voice Melody Transcription Using Deep Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">François Rigaud and Mathieu Radenen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sparse Coding Based Music Genre Classification Using Spectro-Temporal Modulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kai-Chun Hsu, Chih-Shan Lin and Tai-Shih Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time-Delayed Melody Surfaces for Rāga Recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sankalp Gulati, Joan Serrà, Kaustuv Kanti Ganguli, Sertan Şentürk and Xavier Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transcribing Human Piano Performances into Music Notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Cogliati, David Temperley and Zhiyao Duan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WiMIR: An Informetric Study On Women Authors In ISMIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiao Hu, Kahyun Choi, Jin Ha Lee, Audrey Laplante, Yun Hao, Sally Jo Cunningham and J. Stephen Downie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Melodic Reduction Using a Supervised Probabilistic Context-Free Grammar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Groves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09_oral-session-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Neural Greedy Model for Voice Separation in Symbolic Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Gray and Razvan Bunescu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Towards Score Following In Sheet Music Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Dorfer, Andreas Arzt and Gerhard Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracting Ground-Truth Information from MIDI Files: A MIDIfesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin Raffel and Daniel Ellis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatic Tagging Using Deep Convolutional Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keunwoo Choi, György Fazekas and Mark Sandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10_oral-session-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Hybrid Gaussian-HMM-Deep Learning Approach for Automatic Chord Estimation with Very Large Vocabulary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junqi Deng and Yu-Kwong Kwok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melody Extraction on Vocal Segments Using Multi-Column Deep Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangeun Kum, Changheun Oh and Juhan Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakob Abesser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islah Ali-MacLachlan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joakim Anden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Arjannikov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leandro Balby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefan Balke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel Barbancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria Barbancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Bellogín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Bemman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto Bernardes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Bigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean-Robert Bisaillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Bishop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmitry Bogdanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciril Bohak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordi Bonada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Bonafonte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juanjo Bosch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keki Burjorjee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald Byrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Caetano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Eduardo Cancino Chacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estefania Cano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio Carabias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Caro Repetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Cartwright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorian Cazau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tak-Shing Chan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chih-Ming Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuo Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srikanth Cherla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu-Hao Chin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kahyun Choi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chia-Hao Chung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Cogliati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debora Correa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courtenay Cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emanuele Coviello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brecht De Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norberto Degara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junqi Deng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnaud Dessein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandra Dhir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Durand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamid Eghbal-Zadeh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slim Essid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve Essinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhe-Cheng Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ángel Faraldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiago Fernandes Tavares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Fillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derry Fitzgerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederic Font</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Foster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin Gagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joachim Ganseman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Gasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggelos Gkiokas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolf Inge Godøy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rong Gong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yupeng Gu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sankalp Gulati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chun Guo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Gurevich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masatoshi Hamanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre Hanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yun Hao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven Hargreaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Hedges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Hockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu-Hui Huang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Po-Sen Huang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katsutoshi Itoyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximos Kaliakatsos-Papakostas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blair Kaneshiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreas Katsiavalos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainer Kelz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minje Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anssi Klapuri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainer Kleinertz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessandro Koerich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Koops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filip Korzeniowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian Krebs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadine Kroher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lun-Wei Ku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank Kurth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathieu Lagrange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robin Laney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thibault Langlois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivier Lartillot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyogu Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sang Won Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernhard Lehner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Leimeister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bochen Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dawen Liang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Lidy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elad Liebman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuan-Pin Lin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jen-Yu Liu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi-Wen Liu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Liuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine Liutkus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jörn Loviscach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lie Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanna Lukashevich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athanasios Lykartsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio López-Serrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson Machado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akira Maezawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Pedro Magalhães</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matija Marolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica Marrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Marsden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Martins de Matos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustin Martorell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panayotis Mavromatis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian McFee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cory McKay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedric Mesnage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Milne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylianos Mimilakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marius Miron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirk Moelants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josh Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandon Morton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela Morvidone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Müllensiefen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidehisa Nagano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eita Nakamura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Navarro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerstin Neubarth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Nichols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriol Nieto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitsunori Ogihara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurizio Omologo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Oramas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vito Ostuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken O’Hanlon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francois Pachet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rui Pedro Paiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tae Hong Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jouni Paulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucien Perticoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Pertusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Pestana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggelos Pikrakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordi Pons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phillip Popp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alastair Porter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent Pugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elio Quinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin Raffel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zafar Rafii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathieu Ramona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preeti Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iris Ren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gang Ren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolin Rindfleisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Ringwalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Rizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Robine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Rodriguez Algarra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Rodríguez López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Rogers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerard Roma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Rowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Said</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin Salamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Sargent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander Schindler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan Schlueter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bjoern Schuller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prem Seetharaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siddharth Sanjay Sigtia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holly Silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana Siwiak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joren Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olga Slizovskaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lloyd Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinhard Sonnleitner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Sprechmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajay Srinivasamurthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Stables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca Stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabian-Robert Stoeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Summers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian Thalmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi Tian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marko Tkalcic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George Tourtellot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosetsu Tsukuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreu Vall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Valle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marnix van Berchum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bastiaan van der Weij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leigh VanHandel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gissel Velarde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naresh Vempala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Vigliensoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Vogl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xing Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsin-Min Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheng-i Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinxi Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ron Weiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christof Weiß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian Whalley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Wolff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Woolhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chih-Wei Wu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fu-Hai Frank Wu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guangyu Xia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mu-Heng Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asteris Zacharakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Zangerle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massimiliano Zanoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Zapata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yichi Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cárthach Ó Nuanáin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertan Şentürk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean-Julien Aucouturier, IRCAM/CNRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanouil Benetos, Queen Mary University of London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Böck, Johannes Kepler University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Ashley Burgoyne, j.a.burgoyne@uva.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ching-Hua Chuan, University of North Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Collins, De Montfort University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally Jo Cunningham, Waikato University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger Dannenberg, Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Davies, INESC TEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W. Bas de Haas, Chordify/Utrecht University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Dittmar, International Audio Laboratories Erlangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Dixon, Queen Mary University of London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Stephen Downie, Graduate School of Library &amp; Information Science, University of Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhiyao Duan, University of Rochester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Douglas Eck, Google, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreas Ehmann, Pandora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Ewert, Queen Mary University of London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George Fazekas, Queen Mary University of London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Fields, Goldsmiths University of London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arthur Flexer, Austrian Research Institute for Artificial Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Fornari, UNICAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ichiro Fujinaga, McGill University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilia Gómez, Universitat Pompeu Fabra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masataka Goto, National Institute of Advanced Industrial Science and Technology (AIST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabien Gouyon, Pandora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maarten Grachten, Austrian Research Institute for Artificial Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Hankinson, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorien Herremans, Queen Mary University of London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfecto Herrera, Universitat Pompeu Fabra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre Holzapfel, OFAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiao Hu, University of Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Humphrey, Spotify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozgur Izmirli, Connecticut College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Knees, Johannes Kepler University Linz, Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Lamere, Spotify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audrey Laplante, Université de Montréal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jin Ha Lee, University of Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynthia Liem, Delft University of Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Mandel, Brooklyn College, CUNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt McVicar, University of Bristol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meinard Mueller, International Audio Laboratories Erlangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicola Orio, University of Padua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Page, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helene Papadopoulos, CNRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geoffroy Peeters, UMR STMS (IRCAM-CNRS-UPMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Prockup, Drexel University / Pandora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Queiroz, University of São Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Schmidt, Pandora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeffrey Scott, Gracenote, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xavier Serra, Universitat Pompeu Fabra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed Sordo, Pandora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob Sturm, QMUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li Su, Academia Sinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Temperley, Eastman School of Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julián Urbano, Universitat Pompeu Fabra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Van Kranenburg, Meertens Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anja Volk, Utrecht University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ju-Chiang Wang, Cisco Systems Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi-Hsuan Yang, Academia Sinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuyoshi Yoshii, Kyoto University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdallah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abesser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teppo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahonen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali-MacLachlan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aljanaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alluri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anagnostopoulou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joakim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amélie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anglade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arjannikov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arzt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assayag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean-Julien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucouturier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badeau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bailes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bainbridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giuseppe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandiera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barthet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baumann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazzica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dogaç</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Başaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serafina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Pablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellogín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bemman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanouil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bengler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bennett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frédéric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bimbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean-Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisaillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bittner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dawn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dmitry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogdanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bohak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonafonte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juanjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimitrios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bountouridis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouwer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bozkurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buccoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Ashley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burgoyne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burjorjee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Böck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caceres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caetano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambouropoulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Eduardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancino Chacon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estefania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carabias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baptiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caramiaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caro Repetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cartwright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castaignet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cazau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carmine Emanuele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali Taylan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cemgil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tak-Shing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chih-Ming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srikanth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu-Hao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kahyun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keunwoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szu-Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ching-Hua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chia-Hao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciglar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogliati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collecchia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darrell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conklin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arshia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courtenay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emanuele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coviello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crawford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sally Jo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunningham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuthbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dannenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertrand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tijl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Bie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Haas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Roure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Souza Britto Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de Valk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debruyne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junqi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devaney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di Giorgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dieleman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dittmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shyamala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doraisamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Stephen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dressler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driedger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhiyao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dzhambazov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Douglas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eerola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eghbal-Zadeh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egozy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ehmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elowsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emiya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esquef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ewert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhe-Cheng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ángel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faraldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morwaread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farbood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fazekas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernandes Tavares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiebrink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fitzgerald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flaig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arthur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flossmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonseca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Font</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ichiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fujinaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Takuya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fujishima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satoru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fukayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaertner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joachim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ganseman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ali Cenk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gingras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giraud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gkiokas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glennon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolf Inge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godøy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goebl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masataka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fab2en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maarten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grachten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grohganz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grunberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynthia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yupeng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catherine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guastavino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sankalp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurevich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gómez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hahn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masatoshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Han</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hankinson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hargreaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henaff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hermant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herremans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoffman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">André</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holzapfel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henkjan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honingh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yajie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Po-Sen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu-Hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humphrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iazzetta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imbrasaite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vignesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISMIR 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akinori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katsutoshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itoyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozgur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izmirli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jakubowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jancovic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janssen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ping-Keng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristoffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanghoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junque de Fortuny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliakatsos-Papakostas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaneshiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kashino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haruhiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katayose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katsiavalos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damián</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kepper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kereliuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kirchhoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetsuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anssi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klapuri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kleinertz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knopke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gopala Krishna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koduri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koenigstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koerich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munevver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kokuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marijn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koolen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korzeniowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katerina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krebs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kroher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kruspe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lun-Wei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagrange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lambert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thibault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langlois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laplante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lartillot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lattner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyogu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jin Ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sang Won</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lehmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lehner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leimeister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kjell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemstrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bochen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dawen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liebman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daryl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yin-Tzu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuan-Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi-Wen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jen-Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liutkus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobato Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jörn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loviscach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukashevich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athanasios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lykartsis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">López-Serrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maezawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Pedro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magalhães</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maia Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mallat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jônatas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manzolli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marsden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martins de Matos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martorell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panayotis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mavromatis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McFee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McKay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McVicar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annamaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesaros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meseguer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesnage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimilakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moelants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moeyersoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montecchio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artemis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morvidone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moussallam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meinard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Müllensiefen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidehisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakamura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomoyasu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masahiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navarro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naveda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kerstin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neubarth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdoulaye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nichols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitsunori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogihara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yasunori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurizio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omologo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobutaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oomen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oramas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ostuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozerov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O’Hanlon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pachet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rui Pedro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palhazi Cuervo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panteli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hélène</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papadopoulos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tae Hong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jouni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pauwels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steffen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pauws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pearce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geoffroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peeters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perticoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matevž</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pestana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pikrakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pimenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phillip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alastair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praetzlich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preinfalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proutskova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queiroz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanislaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raczynski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raffel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zafar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramírez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preeti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raphael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rashkov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rauber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christophe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rindfleisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ringwalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robertson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocamora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodriguez Algarra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodríguez López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rogers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohrmeier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruthmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makiko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sadakata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shigeki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Said</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetsuya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craig Stuart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sargent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarroff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schedl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flávio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schiavoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schindler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schlueter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schnitzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bjoern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeffrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seetharaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serrà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seyerlehner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siddharth Sanjay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigtia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sioros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siwiak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malcolm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slaney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slizovskaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smaragdis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lloyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soboroff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soleymani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Song</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonnleitner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sordo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprechmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srinivasamurthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stober</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabian-Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sturm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvin Wen Yu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Su</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subramanian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tardieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tjoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tkalcic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toiviainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tourtellot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Godfried</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toussaint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caroline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsagkias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wei-Ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosetsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tsukuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turnbull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tzanetakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uhle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julián</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yonatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaizman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valero-Mas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Balen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marnix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van Berchum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bastiaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van der Weij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Kranenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VanHandel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaquero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aneesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vartakavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gissel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velarde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veltkamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vempala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigliensoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtanen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vogl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanderley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ju-Chiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsin-Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jia-Ching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheng-i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wouter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weerkamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weigl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weinstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tillman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whalley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Widmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiggins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Williamson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilmering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woolhouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fu-Hai Frank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chih-Wei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guangyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karthik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yadati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi-Hsuan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mu-Heng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazuyoshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoshii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sølvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ystad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asteris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zacharakis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zagorski-Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zangerle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massimiliano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zanoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lawrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zbikowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yichi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cárthach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ó Nuanáin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sertan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Şentürk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Şimşekli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 1: Mixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster session 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 2: Rhythm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 3: Users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster session 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 4: Musicologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 5: Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster session 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 6: Symbolic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral session 7: Deep-learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVA: An Interactive System for Visual And Quantitative Analyses of Vibrato and Portamento Performance Styles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversations with Expert Users in Music Retrieval and Research Challenges for Creative Mir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer Programming Formulation of The Problem of Generating Milton Babbitt's All-Partition Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural Segmentation and Visualization of Sitar And Sarod Concert Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinutha T. P., Suryanarayana Sankagiri, Kaustuv Kanti Ganguli and Preeti Rao</t>
   </si>
   <si>
     <t xml:space="preserve">Cross Task Study on Mirex Recent Results: An Index for Evolution Measurement and Some Stagnation Hypotheses</t>
@@ -4834,15 +4837,15 @@
   </sheetPr>
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.05116279069767"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="91.0093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.29302325581395"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.7720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,7 +6454,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,7 +7626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,7 +7953,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12745,7 +12748,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12882,7 +12885,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13030,7 +13033,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13413,7 +13416,7 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>1543</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>65</v>
@@ -13463,7 +13466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13594,7 +13597,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>104</v>
@@ -13636,7 +13639,7 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>110</v>
@@ -13678,7 +13681,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>116</v>
@@ -13709,7 +13712,7 @@
         <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>98</v>
@@ -13734,7 +13737,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>124</v>
@@ -13748,7 +13751,7 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>126</v>
@@ -13762,7 +13765,7 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>128</v>
@@ -13790,7 +13793,7 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>132</v>
@@ -13846,7 +13849,7 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>140</v>
@@ -13910,7 +13913,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.05116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.29302325581395"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13926,10 +13929,10 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>260</v>
@@ -13992,7 +13995,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>177</v>
@@ -14047,7 +14050,7 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>187</v>
@@ -14124,7 +14127,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>201</v>
@@ -14146,7 +14149,7 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>205</v>
@@ -14157,7 +14160,7 @@
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>207</v>
